--- a/BackTest/2020-01-11 BackTest AMO.xlsx
+++ b/BackTest/2020-01-11 BackTest AMO.xlsx
@@ -12316,13 +12316,17 @@
         <v>0.2546083333333332</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.2541</v>
+      </c>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
@@ -12351,14 +12355,22 @@
         <v>0.2546283333333332</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12392,8 +12404,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -15466,13 +15484,17 @@
         <v>0.2543766666666666</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2531</v>
+      </c>
       <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
@@ -15501,14 +15523,22 @@
         <v>0.2543799999999999</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>0.2558</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15542,8 +15572,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -19736,17 +19772,13 @@
         <v>0.2538666666666665</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K553" t="n">
-        <v>0.2528</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
@@ -19775,22 +19807,14 @@
         <v>0.2538549999999998</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K554" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -19818,22 +19842,14 @@
         <v>0.2538266666666665</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="K555" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -19861,17 +19877,13 @@
         <v>0.2537999999999999</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K556" t="n">
-        <v>0.2526</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
@@ -19906,16 +19918,12 @@
         <v>0</v>
       </c>
       <c r="J557" t="n">
-        <v>0.2527</v>
+        <v>0.2526</v>
       </c>
       <c r="K557" t="n">
         <v>0.2526</v>
       </c>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -19949,7 +19957,7 @@
         <v>0</v>
       </c>
       <c r="J558" t="n">
-        <v>0.253</v>
+        <v>0.2527</v>
       </c>
       <c r="K558" t="n">
         <v>0.2526</v>
@@ -19992,7 +20000,7 @@
         <v>0</v>
       </c>
       <c r="J559" t="n">
-        <v>0.2531</v>
+        <v>0.2526</v>
       </c>
       <c r="K559" t="n">
         <v>0.2526</v>
@@ -20035,7 +20043,7 @@
         <v>0</v>
       </c>
       <c r="J560" t="n">
-        <v>0.2532</v>
+        <v>0.2531</v>
       </c>
       <c r="K560" t="n">
         <v>0.2526</v>
@@ -20078,7 +20086,7 @@
         <v>0</v>
       </c>
       <c r="J561" t="n">
-        <v>0.2535</v>
+        <v>0.2532</v>
       </c>
       <c r="K561" t="n">
         <v>0.2526</v>
@@ -20115,14 +20123,12 @@
         <v>0.2537449999999998</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="n">
-        <v>0.2549</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="n">
         <v>0.2526</v>
       </c>
@@ -20158,14 +20164,12 @@
         <v>0.2537916666666665</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>0.255</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="n">
         <v>0.2526</v>
       </c>
@@ -22008,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="n">
@@ -22016,11 +22020,11 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M608" t="n">
-        <v>1</v>
+        <v>1.00964766429137</v>
       </c>
     </row>
     <row r="609">
@@ -22049,17 +22053,11 @@
         <v>0</v>
       </c>
       <c r="I609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="L609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22090,17 +22088,11 @@
         <v>0</v>
       </c>
       <c r="I610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="L610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="inlineStr"/>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22134,16 +22126,10 @@
         <v>1</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="L611" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="inlineStr"/>
       <c r="M611" t="n">
-        <v>1.004897070467142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">

--- a/BackTest/2020-01-11 BackTest AMO.xlsx
+++ b/BackTest/2020-01-11 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2794,7 +2794,7 @@
         <v>5004051.205700004</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3703205.581700004</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>5452898.809700004</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>4041868.274700004</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>4601268.591700003</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>5317286.611700004</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>4296141.145700004</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>5698695.918700004</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2673216.550700004</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1550361.936700004</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>2630837.739700004</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1279137.540700004</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>2563031.640700005</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4007965.225700004</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>3130907.720700005</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1957198.531700005</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>177656.2347000046</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1334413.898700005</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2228422.928700005</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>953004.5917000046</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1410695.759700005</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>2414889.700700005</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>440404.867700005</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>474307.9167000048</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>3113956.196700004</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>5811932.423100006</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>4528038.323100005</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>3032250.164100005</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>2121289.609100005</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>3379756.422100005</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>2180619.946100005</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1829267.973099995</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-3071619.609299996</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-3639495.689299996</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-2931953.431299996</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1766720.005299996</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1936235.254299996</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-5177662.662299996</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-5398032.485299997</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2974332.246299997</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2199709.942788532</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2949631.012788532</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-3674124.795788532</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-3911446.141788532</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-4974970.419788532</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-4974970.419788532</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-5580803.528788532</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-6415482.222788532</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-7449206.768788531</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1000157.394988533</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -19261,14 +19261,10 @@
         <v>-9592070.866388535</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="J572" t="n">
-        <v>0.2538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
@@ -19301,14 +19297,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19340,14 +19330,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20597,14 +20581,10 @@
         <v>-12351805.80188853</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J612" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
@@ -20634,19 +20614,11 @@
         <v>-13067823.82188853</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J613" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20675,19 +20647,11 @@
         <v>-12038202.59388853</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J614" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20749,7 +20713,7 @@
         <v>-12707787.82188854</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I616" t="n">
         <v>0.2526</v>
@@ -20786,11 +20750,9 @@
         <v>-14460320.55468854</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="n">
-        <v>0.2527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
         <v>0.2526</v>
       </c>
@@ -20827,11 +20789,9 @@
         <v>-14134312.17418854</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
         <v>0.2526</v>
       </c>
@@ -20868,7 +20828,7 @@
         <v>-12791087.73818853</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>0.2531</v>
@@ -20909,11 +20869,9 @@
         <v>-11522145.16318854</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
-      </c>
-      <c r="I620" t="n">
-        <v>0.2532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
         <v>0.2526</v>
       </c>
@@ -20950,11 +20908,9 @@
         <v>-9207231.498388536</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="n">
-        <v>0.254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
         <v>0.2526</v>
       </c>
@@ -21459,11 +21415,9 @@
         <v>-8751942.925388539</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="n">
-        <v>0.2533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
         <v>0.2526</v>
       </c>
@@ -21851,11 +21805,9 @@
         <v>-9845316.273388537</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
         <v>0.2526</v>
       </c>
@@ -21892,11 +21844,9 @@
         <v>-9845316.273388537</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>0.2543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
         <v>0.2526</v>
       </c>
@@ -21933,11 +21883,9 @@
         <v>-11120734.61038854</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="n">
-        <v>0.2543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
         <v>0.2526</v>
       </c>
@@ -21974,11 +21922,9 @@
         <v>-9887695.085388536</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
         <v>0.2526</v>
       </c>
@@ -22015,11 +21961,9 @@
         <v>-9887695.085388536</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
-      </c>
-      <c r="I648" t="n">
-        <v>0.2543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
         <v>0.2526</v>
       </c>
@@ -22095,11 +22039,9 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
         <v>0.2526</v>
       </c>
@@ -22136,11 +22078,9 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
         <v>0.2526</v>
       </c>
@@ -22177,11 +22117,9 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
         <v>0.2526</v>
       </c>
@@ -22218,11 +22156,9 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
         <v>0.2526</v>
       </c>
@@ -22259,11 +22195,9 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
         <v>0.2526</v>
       </c>
@@ -22339,7 +22273,7 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>0.2542</v>
@@ -22380,9 +22314,11 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="J657" t="n">
         <v>0.2526</v>
       </c>
@@ -22419,7 +22355,7 @@
         <v>-9497810.015388535</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
         <v>0.2542</v>
@@ -22460,7 +22396,7 @@
         <v>-9497810.015388535</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>0.2543</v>
@@ -22501,7 +22437,7 @@
         <v>-10637616.15438854</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I660" t="n">
         <v>0.2543</v>
@@ -22542,7 +22478,7 @@
         <v>-9421528.153388536</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
         <v>0.2542</v>
@@ -22583,7 +22519,7 @@
         <v>-9421528.153388536</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>0.2543</v>
@@ -22624,7 +22560,7 @@
         <v>-8531352.885388536</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I663" t="n">
         <v>0.2543</v>
@@ -22665,7 +22601,7 @@
         <v>-6604286.620688536</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>0.255</v>
@@ -22706,9 +22642,11 @@
         <v>-5650947.253688537</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.256</v>
+      </c>
       <c r="J665" t="n">
         <v>0.2526</v>
       </c>
@@ -22745,19 +22683,21 @@
         <v>-3689661.487988536</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>0.2561</v>
+      </c>
       <c r="J666" t="n">
         <v>0.2526</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L666" t="n">
-        <v>1.009251781472684</v>
+        <v>1</v>
       </c>
       <c r="M666" t="inlineStr"/>
     </row>
@@ -22784,11 +22724,19 @@
         <v>-2189661.487988536</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>0.2562</v>
+      </c>
+      <c r="J667" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22820,8 +22768,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22850,11 +22804,17 @@
         <v>-7719135.079788536</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22883,11 +22843,17 @@
         <v>-7719135.079788536</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22919,8 +22885,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22952,8 +22924,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22985,8 +22963,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23015,15 +22999,17 @@
         <v>-4863170.958788535</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="n">
-        <v>0.2544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="K674" t="inlineStr"/>
+        <v>0.2526</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23056,11 +23042,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>0.2544</v>
+        <v>0.2526</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L675" t="n">
@@ -23095,11 +23081,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>0.2544</v>
+        <v>0.2526</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L676" t="n">
@@ -23130,11 +23116,19 @@
         <v>-3850501.254788535</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="J677" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23163,11 +23157,17 @@
         <v>-4820792.146788535</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23199,8 +23199,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23229,11 +23235,17 @@
         <v>-3851749.730788535</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23262,15 +23274,19 @@
         <v>-2644137.492788535</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I681" t="n">
         <v>0.2541</v>
       </c>
       <c r="J681" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="K681" t="inlineStr"/>
+        <v>0.2526</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23299,17 +23315,17 @@
         <v>-1597564.739788535</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682" t="n">
         <v>0.2546</v>
       </c>
       <c r="J682" t="n">
-        <v>0.2541</v>
+        <v>0.2526</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L682" t="n">
@@ -23344,11 +23360,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>0.2541</v>
+        <v>0.2526</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L683" t="n">
@@ -23379,11 +23395,17 @@
         <v>-745934.5217885346</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23412,11 +23434,17 @@
         <v>-2106110.482788534</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23445,11 +23473,17 @@
         <v>-1415519.749788534</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23478,11 +23512,17 @@
         <v>-2750268.423788534</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23511,11 +23551,17 @@
         <v>-3856171.513788534</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23544,11 +23590,17 @@
         <v>-2343431.829788534</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23580,8 +23632,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23613,8 +23671,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23646,8 +23710,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23679,8 +23749,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23712,8 +23788,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23745,8 +23827,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23778,8 +23866,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23811,14 +23905,20 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
       <c r="M697" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest AMO.xlsx
+++ b/BackTest/2020-01-11 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>-6357318.646699997</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-76248.83629999752</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>567909.1047000026</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>5728544.988700003</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>5004051.205700004</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3703205.581700004</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>5452898.809700004</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>4041868.274700004</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>5317286.611700004</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>4296141.145700004</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>5698695.918700004</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>2630837.739700004</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1279137.540700004</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>2563031.640700005</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4007965.225700004</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>3130907.720700005</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1957198.531700005</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>177656.2347000046</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1334413.898700005</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2228422.928700005</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>953004.5917000046</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1410695.759700005</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>2414889.700700005</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>440404.867700005</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>474307.9167000048</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>3113956.196700004</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>2236898.690700003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>902150.0157000035</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>5811932.423100006</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>4528038.323100005</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>3032250.164100005</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>2121289.609100005</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>3379756.422100005</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>2180619.946100005</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1829267.973099995</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-3071619.609299996</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-3639495.689299996</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-2931953.431299996</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-1766720.005299996</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-1936235.254299996</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-5177662.662299996</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-5398032.485299997</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2974332.246299997</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2199709.942788532</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2949631.012788532</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-3674124.795788532</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-3911446.141788532</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-4974970.419788532</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-4974970.419788532</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-5580803.528788532</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-6415482.222788532</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-7449206.768788531</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1000157.394988533</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-3013458.636288535</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-6021187.067488535</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -20647,10 +20647,14 @@
         <v>-12038202.59388853</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J614" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
@@ -20680,11 +20684,19 @@
         <v>-13491611.94088854</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20721,7 +20733,11 @@
       <c r="J616" t="n">
         <v>0.2526</v>
       </c>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,9 +20766,11 @@
         <v>-14460320.55468854</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="J617" t="n">
         <v>0.2526</v>
       </c>
@@ -20789,9 +20807,11 @@
         <v>-14134312.17418854</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J618" t="n">
         <v>0.2526</v>
       </c>
@@ -20869,9 +20889,11 @@
         <v>-11522145.16318854</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.2532</v>
+      </c>
       <c r="J620" t="n">
         <v>0.2526</v>
       </c>
@@ -22273,11 +22295,9 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
         <v>0.2526</v>
       </c>
@@ -22314,11 +22334,9 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
         <v>0.2526</v>
       </c>
@@ -22355,11 +22373,9 @@
         <v>-9497810.015388535</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
         <v>0.2526</v>
       </c>
@@ -22396,11 +22412,9 @@
         <v>-9497810.015388535</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>0.2543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
         <v>0.2526</v>
       </c>
@@ -22437,11 +22451,9 @@
         <v>-10637616.15438854</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>0.2543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
         <v>0.2526</v>
       </c>
@@ -22478,11 +22490,9 @@
         <v>-9421528.153388536</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>0.2542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
         <v>0.2526</v>
       </c>
@@ -22519,11 +22529,9 @@
         <v>-9421528.153388536</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>0.2543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
         <v>0.2526</v>
       </c>
@@ -22560,11 +22568,9 @@
         <v>-8531352.885388536</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>0.2543</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
         <v>0.2526</v>
       </c>
@@ -22601,11 +22607,9 @@
         <v>-6604286.620688536</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>0.255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
         <v>0.2526</v>
       </c>
@@ -22642,11 +22646,9 @@
         <v>-5650947.253688537</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>0.256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
         <v>0.2526</v>
       </c>
@@ -22683,11 +22685,9 @@
         <v>-3689661.487988536</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>0.2561</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
         <v>0.2526</v>
       </c>
@@ -22724,11 +22724,9 @@
         <v>-2189661.487988536</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>0.2562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
         <v>0.2526</v>
       </c>
@@ -23116,11 +23114,9 @@
         <v>-3850501.254788535</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>0.2544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
         <v>0.2526</v>
       </c>
@@ -23274,11 +23270,9 @@
         <v>-2644137.492788535</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>0.2541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
         <v>0.2526</v>
       </c>
@@ -23315,11 +23309,9 @@
         <v>-1597564.739788535</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>0.2546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
         <v>0.2526</v>
       </c>
@@ -23919,6 +23911,6 @@
       <c r="M697" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest AMO.xlsx
+++ b/BackTest/2020-01-11 BackTest AMO.xlsx
@@ -748,7 +748,7 @@
         <v>-6357318.646699997</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-76248.83629999752</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>567909.1047000026</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>5728544.988700003</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>4601268.591700003</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2673216.550700004</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1550361.936700004</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>2236898.690700003</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>902150.0157000035</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2199709.942788532</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2949631.012788532</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-3674124.795788532</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-5152961.429788532</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-3911446.141788532</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-3013458.636288535</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-6021187.067488535</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -20647,14 +20647,10 @@
         <v>-12038202.59388853</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J614" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
@@ -20690,13 +20686,9 @@
         <v>0.2527</v>
       </c>
       <c r="J615" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.2527</v>
+      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20731,7 +20723,7 @@
         <v>0.2526</v>
       </c>
       <c r="J616" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -20766,13 +20758,11 @@
         <v>-14460320.55468854</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="n">
         <v>0.2527</v>
-      </c>
-      <c r="J617" t="n">
-        <v>0.2526</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -20807,13 +20797,11 @@
         <v>-14134312.17418854</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -20848,13 +20836,11 @@
         <v>-12791087.73818853</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>0.2531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -20889,13 +20875,11 @@
         <v>-11522145.16318854</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>0.2532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -20934,7 +20918,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -20973,7 +20957,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21012,7 +20996,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21051,7 +21035,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21090,7 +21074,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21129,7 +21113,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21168,7 +21152,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21207,7 +21191,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21246,7 +21230,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21285,7 +21269,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21324,7 +21308,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21363,7 +21347,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21402,7 +21386,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21441,7 +21425,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21480,7 +21464,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21519,7 +21503,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21558,7 +21542,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21597,7 +21581,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21636,7 +21620,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21675,7 +21659,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21714,7 +21698,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21753,7 +21737,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21792,7 +21776,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21831,7 +21815,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21870,7 +21854,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -21909,7 +21893,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -21948,7 +21932,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -21987,7 +21971,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22026,7 +22010,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22065,7 +22049,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22104,7 +22088,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22143,7 +22127,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22182,7 +22166,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22217,11 +22201,13 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="J654" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22256,11 +22242,13 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="J655" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22295,11 +22283,13 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="J656" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22334,11 +22324,13 @@
         <v>-10891889.02638854</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="J657" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22373,11 +22365,13 @@
         <v>-9497810.015388535</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="J658" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22412,11 +22406,13 @@
         <v>-9497810.015388535</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0.2543</v>
+      </c>
       <c r="J659" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22451,11 +22447,13 @@
         <v>-10637616.15438854</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.2543</v>
+      </c>
       <c r="J660" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22490,11 +22488,13 @@
         <v>-9421528.153388536</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0.2542</v>
+      </c>
       <c r="J661" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22529,11 +22529,13 @@
         <v>-9421528.153388536</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0.2543</v>
+      </c>
       <c r="J662" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22568,11 +22570,13 @@
         <v>-8531352.885388536</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0.2543</v>
+      </c>
       <c r="J663" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22607,11 +22611,13 @@
         <v>-6604286.620688536</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.255</v>
+      </c>
       <c r="J664" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22650,7 +22656,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22689,7 +22695,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22728,7 +22734,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22767,7 +22773,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -22806,7 +22812,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -22841,19 +22847,19 @@
         <v>-7719135.079788536</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>0.2526</v>
+        <v>0.2527</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L670" t="n">
-        <v>1</v>
+        <v>1.004497427779977</v>
       </c>
       <c r="M670" t="inlineStr"/>
     </row>
@@ -22883,14 +22889,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22922,14 +22922,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22961,14 +22955,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23000,14 +22988,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23039,14 +23021,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23078,14 +23054,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23117,14 +23087,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23156,14 +23120,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23195,14 +23153,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23234,14 +23186,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23270,17 +23216,15 @@
         <v>-2644137.492788535</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>0.2541</v>
+      </c>
       <c r="J681" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2541</v>
+      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23313,11 +23257,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>0.2526</v>
+        <v>0.2541</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L682" t="n">
@@ -23352,11 +23296,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>0.2526</v>
+        <v>0.2541</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L683" t="n">
@@ -23390,14 +23334,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23429,14 +23367,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23468,14 +23400,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23507,14 +23433,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23546,14 +23466,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23585,14 +23499,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23624,14 +23532,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23663,14 +23565,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23702,14 +23598,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23741,14 +23631,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23780,14 +23664,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23819,14 +23697,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23858,14 +23730,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23897,14 +23763,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
